--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.75341901843757</v>
+        <v>0.038687</v>
       </c>
       <c r="H2">
-        <v>5.75341901843757</v>
+        <v>0.116061</v>
       </c>
       <c r="I2">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="J2">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.65524088616486</v>
+        <v>0.024183</v>
       </c>
       <c r="N2">
-        <v>2.65524088616486</v>
+        <v>0.072549</v>
       </c>
       <c r="O2">
-        <v>0.003969452870721604</v>
+        <v>3.405761925099762E-05</v>
       </c>
       <c r="P2">
-        <v>0.003969452870721604</v>
+        <v>3.405761925099762E-05</v>
       </c>
       <c r="Q2">
-        <v>15.27671341299393</v>
+        <v>0.0009355677209999999</v>
       </c>
       <c r="R2">
-        <v>15.27671341299393</v>
+        <v>0.008420109489</v>
       </c>
       <c r="S2">
-        <v>0.0002377369180648848</v>
+        <v>1.268638981333928E-08</v>
       </c>
       <c r="T2">
-        <v>0.0002377369180648848</v>
+        <v>1.268638981333928E-08</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.75341901843757</v>
+        <v>0.038687</v>
       </c>
       <c r="H3">
-        <v>5.75341901843757</v>
+        <v>0.116061</v>
       </c>
       <c r="I3">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="J3">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.37479198888697</v>
+        <v>2.747657333333333</v>
       </c>
       <c r="N3">
-        <v>5.37479198888697</v>
+        <v>8.242972</v>
       </c>
       <c r="O3">
-        <v>0.008035046311988059</v>
+        <v>0.003869605395975608</v>
       </c>
       <c r="P3">
-        <v>0.008035046311988059</v>
+        <v>0.003869605395975608</v>
       </c>
       <c r="Q3">
-        <v>30.92343044900818</v>
+        <v>0.1062986192546667</v>
       </c>
       <c r="R3">
-        <v>30.92343044900818</v>
+        <v>0.9566875732919999</v>
       </c>
       <c r="S3">
-        <v>0.0004812318495605167</v>
+        <v>1.441419675149774E-06</v>
       </c>
       <c r="T3">
-        <v>0.0004812318495605167</v>
+        <v>1.441419675149774E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -661,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.75341901843757</v>
+        <v>0.038687</v>
       </c>
       <c r="H4">
-        <v>5.75341901843757</v>
+        <v>0.116061</v>
       </c>
       <c r="I4">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="J4">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.71312637602057</v>
+        <v>13.83535066666667</v>
       </c>
       <c r="N4">
-        <v>8.71312637602057</v>
+        <v>41.506052</v>
       </c>
       <c r="O4">
-        <v>0.01302568994265915</v>
+        <v>0.0194847250220969</v>
       </c>
       <c r="P4">
-        <v>0.01302568994265915</v>
+        <v>0.01948472502209691</v>
       </c>
       <c r="Q4">
-        <v>50.13026700184677</v>
+        <v>0.5352482112413333</v>
       </c>
       <c r="R4">
-        <v>50.13026700184677</v>
+        <v>4.817233901171999</v>
       </c>
       <c r="S4">
-        <v>0.0007801295250228295</v>
+        <v>7.258018102037664E-06</v>
       </c>
       <c r="T4">
-        <v>0.0007801295250228295</v>
+        <v>7.258018102037665E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -723,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.75341901843757</v>
+        <v>0.038687</v>
       </c>
       <c r="H5">
-        <v>5.75341901843757</v>
+        <v>0.116061</v>
       </c>
       <c r="I5">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="J5">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>651.767897242905</v>
+        <v>10.453083</v>
       </c>
       <c r="N5">
-        <v>651.767897242905</v>
+        <v>31.359249</v>
       </c>
       <c r="O5">
-        <v>0.9743605426669373</v>
+        <v>0.01472137951507571</v>
       </c>
       <c r="P5">
-        <v>0.9743605426669373</v>
+        <v>0.01472137951507571</v>
       </c>
       <c r="Q5">
-        <v>3749.893815604393</v>
+        <v>0.404398422021</v>
       </c>
       <c r="R5">
-        <v>3749.893815604393</v>
+        <v>3.639585798189</v>
       </c>
       <c r="S5">
-        <v>0.05835602034885892</v>
+        <v>5.483682160575198E-06</v>
       </c>
       <c r="T5">
-        <v>0.05835602034885892</v>
+        <v>5.483682160575199E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.75341901843757</v>
+        <v>0.038687</v>
       </c>
       <c r="H6">
-        <v>5.75341901843757</v>
+        <v>0.116061</v>
       </c>
       <c r="I6">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="J6">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.407550840984097</v>
+        <v>682.5043843333333</v>
       </c>
       <c r="N6">
-        <v>0.407550840984097</v>
+        <v>2047.513153</v>
       </c>
       <c r="O6">
-        <v>0.0006092682076939379</v>
+        <v>0.9611906901030149</v>
       </c>
       <c r="P6">
-        <v>0.0006092682076939379</v>
+        <v>0.9611906901030151</v>
       </c>
       <c r="Q6">
-        <v>2.34481075949813</v>
+        <v>26.40404711670367</v>
       </c>
       <c r="R6">
-        <v>2.34481075949813</v>
+        <v>237.636424050333</v>
       </c>
       <c r="S6">
-        <v>3.649005308526099E-05</v>
+        <v>0.0003580414617278996</v>
       </c>
       <c r="T6">
-        <v>3.649005308526099E-05</v>
+        <v>0.0003580414617278997</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>4.65296573553322</v>
+        <v>0.038687</v>
       </c>
       <c r="H7">
-        <v>4.65296573553322</v>
+        <v>0.116061</v>
       </c>
       <c r="I7">
-        <v>0.0484361737271102</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="J7">
-        <v>0.0484361737271102</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.65524088616486</v>
+        <v>0.496718</v>
       </c>
       <c r="N7">
-        <v>2.65524088616486</v>
+        <v>1.490154</v>
       </c>
       <c r="O7">
-        <v>0.003969452870721604</v>
+        <v>0.0006995423445857436</v>
       </c>
       <c r="P7">
-        <v>0.003969452870721604</v>
+        <v>0.0006995423445857437</v>
       </c>
       <c r="Q7">
-        <v>12.35474486291196</v>
+        <v>0.019216529266</v>
       </c>
       <c r="R7">
-        <v>12.35474486291196</v>
+        <v>0.172948763394</v>
       </c>
       <c r="S7">
-        <v>0.0001922651088478479</v>
+        <v>2.605780165943953E-07</v>
       </c>
       <c r="T7">
-        <v>0.0001922651088478479</v>
+        <v>2.605780165943953E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.65296573553322</v>
+        <v>6.837337666666667</v>
       </c>
       <c r="H8">
-        <v>4.65296573553322</v>
+        <v>20.512013</v>
       </c>
       <c r="I8">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="J8">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>5.37479198888697</v>
+        <v>0.024183</v>
       </c>
       <c r="N8">
-        <v>5.37479198888697</v>
+        <v>0.072549</v>
       </c>
       <c r="O8">
-        <v>0.008035046311988059</v>
+        <v>3.405761925099762E-05</v>
       </c>
       <c r="P8">
-        <v>0.008035046311988059</v>
+        <v>3.405761925099762E-05</v>
       </c>
       <c r="Q8">
-        <v>25.00872295990952</v>
+        <v>0.165347336793</v>
       </c>
       <c r="R8">
-        <v>25.00872295990952</v>
+        <v>1.488126031137</v>
       </c>
       <c r="S8">
-        <v>0.0003891868990728298</v>
+        <v>2.242126061073771E-06</v>
       </c>
       <c r="T8">
-        <v>0.0003891868990728298</v>
+        <v>2.242126061073771E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.65296573553322</v>
+        <v>6.837337666666667</v>
       </c>
       <c r="H9">
-        <v>4.65296573553322</v>
+        <v>20.512013</v>
       </c>
       <c r="I9">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="J9">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.71312637602057</v>
+        <v>2.747657333333333</v>
       </c>
       <c r="N9">
-        <v>8.71312637602057</v>
+        <v>8.242972</v>
       </c>
       <c r="O9">
-        <v>0.01302568994265915</v>
+        <v>0.003869605395975608</v>
       </c>
       <c r="P9">
-        <v>0.01302568994265915</v>
+        <v>0.003869605395975608</v>
       </c>
       <c r="Q9">
-        <v>40.54187847699446</v>
+        <v>18.78666098029289</v>
       </c>
       <c r="R9">
-        <v>40.54187847699446</v>
+        <v>169.079948822636</v>
       </c>
       <c r="S9">
-        <v>0.0006309145809781106</v>
+        <v>0.0002547489605907922</v>
       </c>
       <c r="T9">
-        <v>0.0006309145809781106</v>
+        <v>0.0002547489605907922</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.65296573553322</v>
+        <v>6.837337666666667</v>
       </c>
       <c r="H10">
-        <v>4.65296573553322</v>
+        <v>20.512013</v>
       </c>
       <c r="I10">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="J10">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>651.767897242905</v>
+        <v>13.83535066666667</v>
       </c>
       <c r="N10">
-        <v>651.767897242905</v>
+        <v>41.506052</v>
       </c>
       <c r="O10">
-        <v>0.9743605426669373</v>
+        <v>0.0194847250220969</v>
       </c>
       <c r="P10">
-        <v>0.9743605426669373</v>
+        <v>0.01948472502209691</v>
       </c>
       <c r="Q10">
-        <v>3032.653693391774</v>
+        <v>94.59696424474177</v>
       </c>
       <c r="R10">
-        <v>3032.653693391774</v>
+        <v>851.372678202676</v>
       </c>
       <c r="S10">
-        <v>0.04719429651745715</v>
+        <v>0.001282744088567494</v>
       </c>
       <c r="T10">
-        <v>0.04719429651745715</v>
+        <v>0.001282744088567494</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.65296573553322</v>
+        <v>6.837337666666667</v>
       </c>
       <c r="H11">
-        <v>4.65296573553322</v>
+        <v>20.512013</v>
       </c>
       <c r="I11">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="J11">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.407550840984097</v>
+        <v>10.453083</v>
       </c>
       <c r="N11">
-        <v>0.407550840984097</v>
+        <v>31.359249</v>
       </c>
       <c r="O11">
-        <v>0.0006092682076939379</v>
+        <v>0.01472137951507571</v>
       </c>
       <c r="P11">
-        <v>0.0006092682076939379</v>
+        <v>0.01472137951507571</v>
       </c>
       <c r="Q11">
-        <v>1.896320098586751</v>
+        <v>71.47125812869299</v>
       </c>
       <c r="R11">
-        <v>1.896320098586751</v>
+        <v>643.2413231582369</v>
       </c>
       <c r="S11">
-        <v>2.951062075426864E-05</v>
+        <v>0.0009691572514934952</v>
       </c>
       <c r="T11">
-        <v>2.951062075426864E-05</v>
+        <v>0.0009691572514934953</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.6574736702736</v>
+        <v>6.837337666666667</v>
       </c>
       <c r="H12">
-        <v>85.6574736702736</v>
+        <v>20.512013</v>
       </c>
       <c r="I12">
-        <v>0.8916722175782974</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="J12">
-        <v>0.8916722175782974</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.65524088616486</v>
+        <v>682.5043843333333</v>
       </c>
       <c r="N12">
-        <v>2.65524088616486</v>
+        <v>2047.513153</v>
       </c>
       <c r="O12">
-        <v>0.003969452870721604</v>
+        <v>0.9611906901030149</v>
       </c>
       <c r="P12">
-        <v>0.003969452870721604</v>
+        <v>0.9611906901030151</v>
       </c>
       <c r="Q12">
-        <v>227.4412262949005</v>
+        <v>4666.512934667443</v>
       </c>
       <c r="R12">
-        <v>227.4412262949005</v>
+        <v>41998.61641200699</v>
       </c>
       <c r="S12">
-        <v>0.003539450843808872</v>
+        <v>0.06327837186911779</v>
       </c>
       <c r="T12">
-        <v>0.003539450843808872</v>
+        <v>0.06327837186911779</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.6574736702736</v>
+        <v>6.837337666666667</v>
       </c>
       <c r="H13">
-        <v>85.6574736702736</v>
+        <v>20.512013</v>
       </c>
       <c r="I13">
-        <v>0.8916722175782974</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="J13">
-        <v>0.8916722175782974</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.37479198888697</v>
+        <v>0.496718</v>
       </c>
       <c r="N13">
-        <v>5.37479198888697</v>
+        <v>1.490154</v>
       </c>
       <c r="O13">
-        <v>0.008035046311988059</v>
+        <v>0.0006995423445857436</v>
       </c>
       <c r="P13">
-        <v>0.008035046311988059</v>
+        <v>0.0006995423445857437</v>
       </c>
       <c r="Q13">
-        <v>460.3911032712831</v>
+        <v>3.396228691111333</v>
       </c>
       <c r="R13">
-        <v>460.3911032712831</v>
+        <v>30.566058220002</v>
       </c>
       <c r="S13">
-        <v>0.007164627563354713</v>
+        <v>4.605319326818183E-05</v>
       </c>
       <c r="T13">
-        <v>0.007164627563354713</v>
+        <v>4.605319326818184E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>85.6574736702736</v>
+        <v>5.801338666666666</v>
       </c>
       <c r="H14">
-        <v>85.6574736702736</v>
+        <v>17.404016</v>
       </c>
       <c r="I14">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="J14">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>8.71312637602057</v>
+        <v>0.024183</v>
       </c>
       <c r="N14">
-        <v>8.71312637602057</v>
+        <v>0.072549</v>
       </c>
       <c r="O14">
-        <v>0.01302568994265915</v>
+        <v>3.405761925099762E-05</v>
       </c>
       <c r="P14">
-        <v>0.01302568994265915</v>
+        <v>3.405761925099762E-05</v>
       </c>
       <c r="Q14">
-        <v>746.3443931397485</v>
+        <v>0.140293772976</v>
       </c>
       <c r="R14">
-        <v>746.3443931397485</v>
+        <v>1.262643956784</v>
       </c>
       <c r="S14">
-        <v>0.01161464583665821</v>
+        <v>1.902397284993184E-06</v>
       </c>
       <c r="T14">
-        <v>0.01161464583665821</v>
+        <v>1.902397284993184E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>85.6574736702736</v>
+        <v>5.801338666666666</v>
       </c>
       <c r="H15">
-        <v>85.6574736702736</v>
+        <v>17.404016</v>
       </c>
       <c r="I15">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="J15">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>651.767897242905</v>
+        <v>2.747657333333333</v>
       </c>
       <c r="N15">
-        <v>651.767897242905</v>
+        <v>8.242972</v>
       </c>
       <c r="O15">
-        <v>0.9743605426669373</v>
+        <v>0.003869605395975608</v>
       </c>
       <c r="P15">
-        <v>0.9743605426669373</v>
+        <v>0.003869605395975608</v>
       </c>
       <c r="Q15">
-        <v>55828.79149721372</v>
+        <v>15.94009073061689</v>
       </c>
       <c r="R15">
-        <v>55828.79149721372</v>
+        <v>143.460816575552</v>
       </c>
       <c r="S15">
-        <v>0.8688102258006212</v>
+        <v>0.0002161491895556773</v>
       </c>
       <c r="T15">
-        <v>0.8688102258006212</v>
+        <v>0.0002161491895556773</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1396,619 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.801338666666666</v>
+      </c>
+      <c r="H16">
+        <v>17.404016</v>
+      </c>
+      <c r="I16">
+        <v>0.05585819933486567</v>
+      </c>
+      <c r="J16">
+        <v>0.05585819933486567</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>13.83535066666667</v>
+      </c>
+      <c r="N16">
+        <v>41.506052</v>
+      </c>
+      <c r="O16">
+        <v>0.0194847250220969</v>
+      </c>
+      <c r="P16">
+        <v>0.01948472502209691</v>
+      </c>
+      <c r="Q16">
+        <v>80.26355478942577</v>
+      </c>
+      <c r="R16">
+        <v>722.3719931048319</v>
+      </c>
+      <c r="S16">
+        <v>0.001088381654269334</v>
+      </c>
+      <c r="T16">
+        <v>0.001088381654269334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.801338666666666</v>
+      </c>
+      <c r="H17">
+        <v>17.404016</v>
+      </c>
+      <c r="I17">
+        <v>0.05585819933486567</v>
+      </c>
+      <c r="J17">
+        <v>0.05585819933486567</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.453083</v>
+      </c>
+      <c r="N17">
+        <v>31.359249</v>
+      </c>
+      <c r="O17">
+        <v>0.01472137951507571</v>
+      </c>
+      <c r="P17">
+        <v>0.01472137951507571</v>
+      </c>
+      <c r="Q17">
+        <v>60.641874593776</v>
+      </c>
+      <c r="R17">
+        <v>545.7768713439839</v>
+      </c>
+      <c r="S17">
+        <v>0.0008223097514373073</v>
+      </c>
+      <c r="T17">
+        <v>0.0008223097514373074</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.801338666666666</v>
+      </c>
+      <c r="H18">
+        <v>17.404016</v>
+      </c>
+      <c r="I18">
+        <v>0.05585819933486567</v>
+      </c>
+      <c r="J18">
+        <v>0.05585819933486567</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>682.5043843333333</v>
+      </c>
+      <c r="N18">
+        <v>2047.513153</v>
+      </c>
+      <c r="O18">
+        <v>0.9611906901030149</v>
+      </c>
+      <c r="P18">
+        <v>0.9611906901030151</v>
+      </c>
+      <c r="Q18">
+        <v>3959.439075002494</v>
+      </c>
+      <c r="R18">
+        <v>35634.95167502244</v>
+      </c>
+      <c r="S18">
+        <v>0.0536903811665913</v>
+      </c>
+      <c r="T18">
+        <v>0.05369038116659131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.801338666666666</v>
+      </c>
+      <c r="H19">
+        <v>17.404016</v>
+      </c>
+      <c r="I19">
+        <v>0.05585819933486567</v>
+      </c>
+      <c r="J19">
+        <v>0.05585819933486567</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.496718</v>
+      </c>
+      <c r="N19">
+        <v>1.490154</v>
+      </c>
+      <c r="O19">
+        <v>0.0006995423445857436</v>
+      </c>
+      <c r="P19">
+        <v>0.0006995423445857437</v>
+      </c>
+      <c r="Q19">
+        <v>2.881629339829333</v>
+      </c>
+      <c r="R19">
+        <v>25.934664058464</v>
+      </c>
+      <c r="S19">
+        <v>3.907517572704975E-05</v>
+      </c>
+      <c r="T19">
+        <v>3.907517572704975E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>91.18095533333333</v>
+      </c>
+      <c r="H20">
+        <v>273.542866</v>
+      </c>
+      <c r="I20">
+        <v>0.8779359853299634</v>
+      </c>
+      <c r="J20">
+        <v>0.8779359853299635</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.024183</v>
+      </c>
+      <c r="N20">
+        <v>0.072549</v>
+      </c>
+      <c r="O20">
+        <v>3.405761925099762E-05</v>
+      </c>
+      <c r="P20">
+        <v>3.405761925099762E-05</v>
+      </c>
+      <c r="Q20">
+        <v>2.205029042826</v>
+      </c>
+      <c r="R20">
+        <v>19.845261385434</v>
+      </c>
+      <c r="S20">
+        <v>2.990040951511733E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.990040951511733E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>85.6574736702736</v>
-      </c>
-      <c r="H16">
-        <v>85.6574736702736</v>
-      </c>
-      <c r="I16">
-        <v>0.8916722175782974</v>
-      </c>
-      <c r="J16">
-        <v>0.8916722175782974</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.407550840984097</v>
-      </c>
-      <c r="N16">
-        <v>0.407550840984097</v>
-      </c>
-      <c r="O16">
-        <v>0.0006092682076939379</v>
-      </c>
-      <c r="P16">
-        <v>0.0006092682076939379</v>
-      </c>
-      <c r="Q16">
-        <v>34.90977543089316</v>
-      </c>
-      <c r="R16">
-        <v>34.90977543089316</v>
-      </c>
-      <c r="S16">
-        <v>0.0005432675338544083</v>
-      </c>
-      <c r="T16">
-        <v>0.0005432675338544083</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>91.18095533333333</v>
+      </c>
+      <c r="H21">
+        <v>273.542866</v>
+      </c>
+      <c r="I21">
+        <v>0.8779359853299634</v>
+      </c>
+      <c r="J21">
+        <v>0.8779359853299635</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.747657333333333</v>
+      </c>
+      <c r="N21">
+        <v>8.242972</v>
+      </c>
+      <c r="O21">
+        <v>0.003869605395975608</v>
+      </c>
+      <c r="P21">
+        <v>0.003869605395975608</v>
+      </c>
+      <c r="Q21">
+        <v>250.5340205819724</v>
+      </c>
+      <c r="R21">
+        <v>2254.806185237752</v>
+      </c>
+      <c r="S21">
+        <v>0.003397265826153989</v>
+      </c>
+      <c r="T21">
+        <v>0.003397265826153989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>91.18095533333333</v>
+      </c>
+      <c r="H22">
+        <v>273.542866</v>
+      </c>
+      <c r="I22">
+        <v>0.8779359853299634</v>
+      </c>
+      <c r="J22">
+        <v>0.8779359853299635</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.83535066666667</v>
+      </c>
+      <c r="N22">
+        <v>41.506052</v>
+      </c>
+      <c r="O22">
+        <v>0.0194847250220969</v>
+      </c>
+      <c r="P22">
+        <v>0.01948472502209691</v>
+      </c>
+      <c r="Q22">
+        <v>1261.520491158337</v>
+      </c>
+      <c r="R22">
+        <v>11353.68442042503</v>
+      </c>
+      <c r="S22">
+        <v>0.01710634126115804</v>
+      </c>
+      <c r="T22">
+        <v>0.01710634126115804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>91.18095533333333</v>
+      </c>
+      <c r="H23">
+        <v>273.542866</v>
+      </c>
+      <c r="I23">
+        <v>0.8779359853299634</v>
+      </c>
+      <c r="J23">
+        <v>0.8779359853299635</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.453083</v>
+      </c>
+      <c r="N23">
+        <v>31.359249</v>
+      </c>
+      <c r="O23">
+        <v>0.01472137951507571</v>
+      </c>
+      <c r="P23">
+        <v>0.01472137951507571</v>
+      </c>
+      <c r="Q23">
+        <v>953.1220941186259</v>
+      </c>
+      <c r="R23">
+        <v>8578.098847067633</v>
+      </c>
+      <c r="S23">
+        <v>0.01292442882998433</v>
+      </c>
+      <c r="T23">
+        <v>0.01292442882998434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>91.18095533333333</v>
+      </c>
+      <c r="H24">
+        <v>273.542866</v>
+      </c>
+      <c r="I24">
+        <v>0.8779359853299634</v>
+      </c>
+      <c r="J24">
+        <v>0.8779359853299635</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>682.5043843333333</v>
+      </c>
+      <c r="N24">
+        <v>2047.513153</v>
+      </c>
+      <c r="O24">
+        <v>0.9611906901030149</v>
+      </c>
+      <c r="P24">
+        <v>0.9611906901030151</v>
+      </c>
+      <c r="Q24">
+        <v>62231.40178270183</v>
+      </c>
+      <c r="R24">
+        <v>560082.6160443164</v>
+      </c>
+      <c r="S24">
+        <v>0.843863895605578</v>
+      </c>
+      <c r="T24">
+        <v>0.8438638956055782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>91.18095533333333</v>
+      </c>
+      <c r="H25">
+        <v>273.542866</v>
+      </c>
+      <c r="I25">
+        <v>0.8779359853299634</v>
+      </c>
+      <c r="J25">
+        <v>0.8779359853299635</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.496718</v>
+      </c>
+      <c r="N25">
+        <v>1.490154</v>
+      </c>
+      <c r="O25">
+        <v>0.0006995423445857436</v>
+      </c>
+      <c r="P25">
+        <v>0.0006995423445857437</v>
+      </c>
+      <c r="Q25">
+        <v>45.29122177126266</v>
+      </c>
+      <c r="R25">
+        <v>407.620995941364</v>
+      </c>
+      <c r="S25">
+        <v>0.0006141533975739176</v>
+      </c>
+      <c r="T25">
+        <v>0.0006141533975739178</v>
       </c>
     </row>
   </sheetData>
